--- a/output/fere-ceca.xlsx
+++ b/output/fere-ceca.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -25,46 +25,46 @@
     <t>Gross_National_Income</t>
   </si>
   <si>
-    <t>Subvencion_publica</t>
-  </si>
-  <si>
-    <t>dinero_anyo_anterior_en_proyectos</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Latinoamerica</t>
+    <t>Public_Grant</t>
+  </si>
+  <si>
+    <t>NGO_Country_Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>Vision_ONGD_LatinAmerica</t>
   </si>
   <si>
     <t>Vision_ONGD_Africa</t>
   </si>
   <si>
-    <t>Vision_ONGD_Confesional</t>
+    <t>Vision_ONGD_Confessional</t>
   </si>
   <si>
     <t>Vision_ONGD_Universal</t>
   </si>
   <si>
-    <t>Fondos_Publicos_MAE</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Descentralizada</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Internacional</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Otros</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Total</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Cuotas</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Donaciones</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Empresas</t>
+    <t>Public_Funds_MAE</t>
+  </si>
+  <si>
+    <t>Public_Funds_Decentralized</t>
+  </si>
+  <si>
+    <t>Public_Funds_Internacional</t>
+  </si>
+  <si>
+    <t>Public_Funds_Other</t>
+  </si>
+  <si>
+    <t>Public_Funds_Total</t>
+  </si>
+  <si>
+    <t>Private_Funds_Cuotas</t>
+  </si>
+  <si>
+    <t>Public_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Public_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>Proporcion_Fondos_Privados</t>
+  </si>
+  <si>
+    <t>Anyo_ONG</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Colony</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -591,7 +600,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ43"/>
+  <dimension ref="A1:AM43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,7 +609,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -709,10 +718,19 @@
       <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -811,15 +829,24 @@
         <v>0.04786277214230086</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>1957</v>
       </c>
       <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
         <v>180000</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:39">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -918,15 +945,24 @@
         <v>0.04786277214230086</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>1957</v>
       </c>
       <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
         <v>90000</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:39">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1025,15 +1061,24 @@
         <v>0.04786277214230086</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>1957</v>
       </c>
       <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
         <v>18355</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:39">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1132,15 +1177,24 @@
         <v>0.04786277214230086</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>1957</v>
       </c>
       <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
         <v>3141</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1239,15 +1293,24 @@
         <v>0.04786277214230086</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>1957</v>
       </c>
       <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
         <v>100000</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:39">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1346,15 +1409,24 @@
         <v>0.04786277214230086</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>1957</v>
       </c>
       <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
         <v>58100</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:39">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1453,15 +1525,24 @@
         <v>0.04786277214230086</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>1957</v>
       </c>
       <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
         <v>4062000</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:39">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1560,15 +1641,24 @@
         <v>0.1023721682652028</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>1957</v>
       </c>
       <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
         <v>4000000</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:39">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1667,15 +1757,24 @@
         <v>0.1023721682652028</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>1957</v>
       </c>
       <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
         <v>5081</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:39">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1774,15 +1873,24 @@
         <v>0.1023721682652028</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>1957</v>
       </c>
       <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
         <v>103865</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:39">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1881,15 +1989,24 @@
         <v>0.1023721682652028</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <v>1957</v>
       </c>
       <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
         <v>22629</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1988,15 +2105,24 @@
         <v>0.1023721682652028</v>
       </c>
       <c r="AI13">
-        <v>1</v>
+        <v>1957</v>
       </c>
       <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>1</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
         <v>17242</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:39">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2095,15 +2221,24 @@
         <v>0.1023721682652028</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>1957</v>
       </c>
       <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>1</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AM14">
         <v>112000</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2202,15 +2337,24 @@
         <v>0.1023721682652028</v>
       </c>
       <c r="AI15">
-        <v>1</v>
+        <v>1957</v>
       </c>
       <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
         <v>95000</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:39">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2309,15 +2453,24 @@
         <v>0.06878768198097412</v>
       </c>
       <c r="AI16">
-        <v>1</v>
+        <v>1957</v>
       </c>
       <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
         <v>99000</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:39">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2416,15 +2569,24 @@
         <v>0.06878768198097412</v>
       </c>
       <c r="AI17">
-        <v>1</v>
+        <v>1957</v>
       </c>
       <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>1</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AM17">
         <v>3000000</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:39">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2523,15 +2685,24 @@
         <v>0.06878768198097412</v>
       </c>
       <c r="AI18">
-        <v>1</v>
+        <v>1957</v>
       </c>
       <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
         <v>44625</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:39">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2630,15 +2801,24 @@
         <v>0.06878768198097412</v>
       </c>
       <c r="AI19">
-        <v>1</v>
+        <v>1957</v>
       </c>
       <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>1</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
         <v>16500</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:39">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2737,15 +2917,24 @@
         <v>0.06878768198097412</v>
       </c>
       <c r="AI20">
-        <v>1</v>
+        <v>1957</v>
       </c>
       <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>1</v>
+      </c>
+      <c r="AM20">
         <v>660000</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:39">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2844,15 +3033,24 @@
         <v>0.06878768198097412</v>
       </c>
       <c r="AI21">
-        <v>1</v>
+        <v>1957</v>
       </c>
       <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>1</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AM21">
         <v>165187</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:39">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2951,15 +3149,24 @@
         <v>0.06878768198097412</v>
       </c>
       <c r="AI22">
-        <v>1</v>
+        <v>1957</v>
       </c>
       <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>1</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
+      <c r="AM22">
         <v>224000</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:39">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3058,15 +3265,24 @@
         <v>0.06878768198097412</v>
       </c>
       <c r="AI23">
-        <v>1</v>
+        <v>1957</v>
       </c>
       <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>1</v>
+      </c>
+      <c r="AL23">
+        <v>1</v>
+      </c>
+      <c r="AM23">
         <v>35000</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:39">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -3165,15 +3381,24 @@
         <v>0.1203258906268014</v>
       </c>
       <c r="AI24">
-        <v>1</v>
+        <v>1957</v>
       </c>
       <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>1</v>
+      </c>
+      <c r="AL24">
+        <v>1</v>
+      </c>
+      <c r="AM24">
         <v>1362500</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:39">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3272,15 +3497,24 @@
         <v>0.1203258906268014</v>
       </c>
       <c r="AI25">
-        <v>1</v>
+        <v>1957</v>
       </c>
       <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>1</v>
+      </c>
+      <c r="AM25">
         <v>4000</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:39">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3379,15 +3613,24 @@
         <v>0.1203258906268014</v>
       </c>
       <c r="AI26">
-        <v>1</v>
+        <v>1957</v>
       </c>
       <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>1</v>
+      </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AM26">
         <v>61000</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:39">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -3486,15 +3729,24 @@
         <v>0.784570596797671</v>
       </c>
       <c r="AI27">
-        <v>1</v>
+        <v>1957</v>
       </c>
       <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>1</v>
+      </c>
+      <c r="AL27">
+        <v>1</v>
+      </c>
+      <c r="AM27">
         <v>1362500</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:39">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3593,15 +3845,24 @@
         <v>0.784570596797671</v>
       </c>
       <c r="AI28">
-        <v>1</v>
+        <v>1957</v>
       </c>
       <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>1</v>
+      </c>
+      <c r="AM28">
         <v>4000</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:39">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3700,15 +3961,24 @@
         <v>0.784570596797671</v>
       </c>
       <c r="AI29">
-        <v>1</v>
+        <v>1957</v>
       </c>
       <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>1</v>
+      </c>
+      <c r="AL29">
+        <v>1</v>
+      </c>
+      <c r="AM29">
         <v>61000</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:39">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3807,15 +4077,24 @@
         <v>0.969313387034906</v>
       </c>
       <c r="AI30">
-        <v>1</v>
+        <v>1957</v>
       </c>
       <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>1</v>
+      </c>
+      <c r="AL30">
+        <v>1</v>
+      </c>
+      <c r="AM30">
         <v>12015</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:39">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -3914,15 +4193,24 @@
         <v>0.969313387034906</v>
       </c>
       <c r="AI31">
-        <v>1</v>
+        <v>1957</v>
       </c>
       <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31">
+        <v>1</v>
+      </c>
+      <c r="AM31">
         <v>28768</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:39">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4021,15 +4309,24 @@
         <v>0.969313387034906</v>
       </c>
       <c r="AI32">
-        <v>1</v>
+        <v>1957</v>
       </c>
       <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>1</v>
+      </c>
+      <c r="AM32">
         <v>1600</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:39">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -4128,15 +4425,24 @@
         <v>0.969313387034906</v>
       </c>
       <c r="AI33">
-        <v>1</v>
+        <v>1957</v>
       </c>
       <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33">
+        <v>1</v>
+      </c>
+      <c r="AM33">
         <v>3500</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:39">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4235,15 +4541,24 @@
         <v>0.969313387034906</v>
       </c>
       <c r="AI34">
-        <v>1</v>
+        <v>1957</v>
       </c>
       <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>1</v>
+      </c>
+      <c r="AM34">
         <v>11000</v>
       </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:39">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4342,15 +4657,24 @@
         <v>0.2979530865194396</v>
       </c>
       <c r="AI35">
-        <v>1</v>
+        <v>1957</v>
       </c>
       <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>1</v>
+      </c>
+      <c r="AL35">
+        <v>1</v>
+      </c>
+      <c r="AM35">
         <v>12015</v>
       </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:39">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4449,15 +4773,24 @@
         <v>0.2979530865194396</v>
       </c>
       <c r="AI36">
-        <v>1</v>
+        <v>1957</v>
       </c>
       <c r="AJ36">
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
+      <c r="AL36">
+        <v>1</v>
+      </c>
+      <c r="AM36">
         <v>28768</v>
       </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:39">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4556,15 +4889,24 @@
         <v>0.2979530865194396</v>
       </c>
       <c r="AI37">
-        <v>1</v>
+        <v>1957</v>
       </c>
       <c r="AJ37">
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <v>0</v>
+      </c>
+      <c r="AL37">
+        <v>1</v>
+      </c>
+      <c r="AM37">
         <v>1600</v>
       </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:39">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4663,15 +5005,24 @@
         <v>0.2979530865194396</v>
       </c>
       <c r="AI38">
-        <v>1</v>
+        <v>1957</v>
       </c>
       <c r="AJ38">
+        <v>0</v>
+      </c>
+      <c r="AK38">
+        <v>0</v>
+      </c>
+      <c r="AL38">
+        <v>1</v>
+      </c>
+      <c r="AM38">
         <v>3500</v>
       </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:39">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -4770,15 +5121,24 @@
         <v>0.2979530865194396</v>
       </c>
       <c r="AI39">
-        <v>1</v>
+        <v>1957</v>
       </c>
       <c r="AJ39">
+        <v>0</v>
+      </c>
+      <c r="AK39">
+        <v>0</v>
+      </c>
+      <c r="AL39">
+        <v>1</v>
+      </c>
+      <c r="AM39">
         <v>11000</v>
       </c>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:39">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -4877,15 +5237,24 @@
         <v>0.1025623076729229</v>
       </c>
       <c r="AI40">
-        <v>1</v>
+        <v>1957</v>
       </c>
       <c r="AJ40">
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <v>1</v>
+      </c>
+      <c r="AL40">
+        <v>1</v>
+      </c>
+      <c r="AM40">
         <v>307720</v>
       </c>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:39">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -4984,15 +5353,24 @@
         <v>0.1025623076729229</v>
       </c>
       <c r="AI41">
-        <v>1</v>
+        <v>1957</v>
       </c>
       <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <v>0</v>
+      </c>
+      <c r="AL41">
+        <v>1</v>
+      </c>
+      <c r="AM41">
         <v>14874</v>
       </c>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:39">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -5091,21 +5469,30 @@
         <v>0.1025623076729229</v>
       </c>
       <c r="AI42">
-        <v>1</v>
+        <v>1957</v>
       </c>
       <c r="AJ42">
+        <v>0</v>
+      </c>
+      <c r="AK42">
+        <v>0</v>
+      </c>
+      <c r="AL42">
+        <v>1</v>
+      </c>
+      <c r="AM42">
         <v>705</v>
       </c>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:39">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -5198,9 +5585,18 @@
         <v>0.1025623076729229</v>
       </c>
       <c r="AI43">
-        <v>1</v>
+        <v>1957</v>
       </c>
       <c r="AJ43">
+        <v>0</v>
+      </c>
+      <c r="AK43">
+        <v>0</v>
+      </c>
+      <c r="AL43">
+        <v>1</v>
+      </c>
+      <c r="AM43">
         <v>10682</v>
       </c>
     </row>

--- a/output/fere-ceca.xlsx
+++ b/output/fere-ceca.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -61,10 +61,10 @@
     <t>Private_Funds_Cuotas</t>
   </si>
   <si>
-    <t>Public_Funds_Donations</t>
-  </si>
-  <si>
-    <t>Public_Funds_Companies</t>
+    <t>Private_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Private_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -118,6 +118,9 @@
     <t>Proporcion_Fondos_Privados</t>
   </si>
   <si>
+    <t>Proporcion_Fondos_MAE</t>
+  </si>
+  <si>
     <t>Anyo_ONG</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
   </si>
   <si>
     <t>Colony</t>
+  </si>
+  <si>
+    <t>Delegacion</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -600,7 +606,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM43"/>
+  <dimension ref="A1:AO43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,7 +615,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -727,10 +733,16 @@
       <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -829,24 +841,30 @@
         <v>0.04786277214230086</v>
       </c>
       <c r="AI2">
+        <v>0.7883133994064944</v>
+      </c>
+      <c r="AJ2">
         <v>1957</v>
       </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2">
         <v>1</v>
       </c>
       <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
         <v>180000</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:41">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -945,24 +963,30 @@
         <v>0.04786277214230086</v>
       </c>
       <c r="AI3">
+        <v>0.7883133994064944</v>
+      </c>
+      <c r="AJ3">
         <v>1957</v>
       </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
       <c r="AK3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3">
         <v>1</v>
       </c>
       <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
         <v>90000</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:41">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1061,24 +1085,30 @@
         <v>0.04786277214230086</v>
       </c>
       <c r="AI4">
+        <v>0.7883133994064944</v>
+      </c>
+      <c r="AJ4">
         <v>1957</v>
       </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
       <c r="AK4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4">
         <v>1</v>
       </c>
       <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
         <v>18355</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:41">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1177,24 +1207,30 @@
         <v>0.04786277214230086</v>
       </c>
       <c r="AI5">
+        <v>0.7883133994064944</v>
+      </c>
+      <c r="AJ5">
         <v>1957</v>
       </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
       <c r="AK5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5">
         <v>1</v>
       </c>
       <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
         <v>3141</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:41">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1293,24 +1329,30 @@
         <v>0.04786277214230086</v>
       </c>
       <c r="AI6">
+        <v>0.7883133994064944</v>
+      </c>
+      <c r="AJ6">
         <v>1957</v>
       </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
       <c r="AK6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6">
         <v>1</v>
       </c>
       <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6">
         <v>100000</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:41">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1409,24 +1451,30 @@
         <v>0.04786277214230086</v>
       </c>
       <c r="AI7">
+        <v>0.7883133994064944</v>
+      </c>
+      <c r="AJ7">
         <v>1957</v>
       </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
       <c r="AK7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7">
         <v>1</v>
       </c>
       <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
         <v>58100</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:41">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1525,24 +1573,30 @@
         <v>0.04786277214230086</v>
       </c>
       <c r="AI8">
+        <v>0.7883133994064944</v>
+      </c>
+      <c r="AJ8">
         <v>1957</v>
       </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
       <c r="AK8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8">
         <v>1</v>
       </c>
       <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
         <v>4062000</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:41">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1641,24 +1695,30 @@
         <v>0.1023721682652028</v>
       </c>
       <c r="AI9">
+        <v>0.8646188457511333</v>
+      </c>
+      <c r="AJ9">
         <v>1957</v>
       </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
       <c r="AK9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL9">
         <v>1</v>
       </c>
       <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
         <v>4000000</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:41">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1757,24 +1817,30 @@
         <v>0.1023721682652028</v>
       </c>
       <c r="AI10">
+        <v>0.8646188457511333</v>
+      </c>
+      <c r="AJ10">
         <v>1957</v>
       </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
       <c r="AK10">
         <v>0</v>
       </c>
       <c r="AL10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
         <v>5081</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:41">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1873,24 +1939,30 @@
         <v>0.1023721682652028</v>
       </c>
       <c r="AI11">
+        <v>0.8646188457511333</v>
+      </c>
+      <c r="AJ11">
         <v>1957</v>
       </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
       <c r="AK11">
         <v>0</v>
       </c>
       <c r="AL11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
         <v>103865</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:41">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1989,24 +2061,30 @@
         <v>0.1023721682652028</v>
       </c>
       <c r="AI12">
+        <v>0.8646188457511333</v>
+      </c>
+      <c r="AJ12">
         <v>1957</v>
       </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
       <c r="AK12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12">
         <v>1</v>
       </c>
       <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
         <v>22629</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:41">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2105,24 +2183,30 @@
         <v>0.1023721682652028</v>
       </c>
       <c r="AI13">
+        <v>0.8646188457511333</v>
+      </c>
+      <c r="AJ13">
         <v>1957</v>
       </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
       <c r="AK13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13">
         <v>1</v>
       </c>
       <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
+      </c>
+      <c r="AO13">
         <v>17242</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:41">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2221,24 +2305,30 @@
         <v>0.1023721682652028</v>
       </c>
       <c r="AI14">
+        <v>0.8646188457511333</v>
+      </c>
+      <c r="AJ14">
         <v>1957</v>
       </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
       <c r="AK14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14">
         <v>1</v>
       </c>
       <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
         <v>112000</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:41">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2337,24 +2427,30 @@
         <v>0.1023721682652028</v>
       </c>
       <c r="AI15">
+        <v>0.8646188457511333</v>
+      </c>
+      <c r="AJ15">
         <v>1957</v>
       </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
       <c r="AK15">
         <v>0</v>
       </c>
       <c r="AL15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
         <v>95000</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:41">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2453,24 +2549,30 @@
         <v>0.06878768198097412</v>
       </c>
       <c r="AI16">
+        <v>0.858754983594495</v>
+      </c>
+      <c r="AJ16">
         <v>1957</v>
       </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
       <c r="AK16">
         <v>0</v>
       </c>
       <c r="AL16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16">
         <v>99000</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:41">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2569,24 +2671,30 @@
         <v>0.06878768198097412</v>
       </c>
       <c r="AI17">
+        <v>0.858754983594495</v>
+      </c>
+      <c r="AJ17">
         <v>1957</v>
       </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
       <c r="AK17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL17">
         <v>1</v>
       </c>
       <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
         <v>3000000</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:41">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2685,24 +2793,30 @@
         <v>0.06878768198097412</v>
       </c>
       <c r="AI18">
+        <v>0.858754983594495</v>
+      </c>
+      <c r="AJ18">
         <v>1957</v>
       </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
       <c r="AK18">
         <v>0</v>
       </c>
       <c r="AL18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
         <v>44625</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:41">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2801,24 +2915,30 @@
         <v>0.06878768198097412</v>
       </c>
       <c r="AI19">
+        <v>0.858754983594495</v>
+      </c>
+      <c r="AJ19">
         <v>1957</v>
       </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
       <c r="AK19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL19">
         <v>1</v>
       </c>
       <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
         <v>16500</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:41">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2917,24 +3037,30 @@
         <v>0.06878768198097412</v>
       </c>
       <c r="AI20">
+        <v>0.858754983594495</v>
+      </c>
+      <c r="AJ20">
         <v>1957</v>
       </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
       <c r="AK20">
         <v>0</v>
       </c>
       <c r="AL20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AO20">
         <v>660000</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:41">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3033,24 +3159,30 @@
         <v>0.06878768198097412</v>
       </c>
       <c r="AI21">
+        <v>0.858754983594495</v>
+      </c>
+      <c r="AJ21">
         <v>1957</v>
       </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
       <c r="AK21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL21">
         <v>1</v>
       </c>
       <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
         <v>165187</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:41">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3149,24 +3281,30 @@
         <v>0.06878768198097412</v>
       </c>
       <c r="AI22">
+        <v>0.858754983594495</v>
+      </c>
+      <c r="AJ22">
         <v>1957</v>
       </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
       <c r="AK22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL22">
         <v>1</v>
       </c>
       <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="AO22">
         <v>224000</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:41">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3265,24 +3403,30 @@
         <v>0.06878768198097412</v>
       </c>
       <c r="AI23">
+        <v>0.858754983594495</v>
+      </c>
+      <c r="AJ23">
         <v>1957</v>
       </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
       <c r="AK23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL23">
         <v>1</v>
       </c>
       <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>1</v>
+      </c>
+      <c r="AO23">
         <v>35000</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:41">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -3381,24 +3525,30 @@
         <v>0.1203258906268014</v>
       </c>
       <c r="AI24">
+        <v>0.8325198877829445</v>
+      </c>
+      <c r="AJ24">
         <v>1957</v>
       </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
       <c r="AK24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL24">
         <v>1</v>
       </c>
       <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
         <v>1362500</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:41">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3497,24 +3647,30 @@
         <v>0.1203258906268014</v>
       </c>
       <c r="AI25">
+        <v>0.8325198877829445</v>
+      </c>
+      <c r="AJ25">
         <v>1957</v>
       </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
       <c r="AK25">
         <v>0</v>
       </c>
       <c r="AL25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
         <v>4000</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:41">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3613,24 +3769,30 @@
         <v>0.1203258906268014</v>
       </c>
       <c r="AI26">
+        <v>0.8325198877829445</v>
+      </c>
+      <c r="AJ26">
         <v>1957</v>
       </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
       <c r="AK26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL26">
         <v>1</v>
       </c>
       <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
         <v>61000</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:41">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -3729,24 +3891,30 @@
         <v>0.784570596797671</v>
       </c>
       <c r="AI27">
+        <v>0.215429403202329</v>
+      </c>
+      <c r="AJ27">
         <v>1957</v>
       </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
       <c r="AK27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL27">
         <v>1</v>
       </c>
       <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>1</v>
+      </c>
+      <c r="AO27">
         <v>1362500</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:41">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3845,24 +4013,30 @@
         <v>0.784570596797671</v>
       </c>
       <c r="AI28">
+        <v>0.215429403202329</v>
+      </c>
+      <c r="AJ28">
         <v>1957</v>
       </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
       <c r="AK28">
         <v>0</v>
       </c>
       <c r="AL28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
         <v>4000</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:41">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3961,24 +4135,30 @@
         <v>0.784570596797671</v>
       </c>
       <c r="AI29">
+        <v>0.215429403202329</v>
+      </c>
+      <c r="AJ29">
         <v>1957</v>
       </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
       <c r="AK29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL29">
         <v>1</v>
       </c>
       <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>1</v>
+      </c>
+      <c r="AO29">
         <v>61000</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:41">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4077,24 +4257,30 @@
         <v>0.969313387034906</v>
       </c>
       <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
         <v>1957</v>
       </c>
-      <c r="AJ30">
-        <v>0</v>
-      </c>
       <c r="AK30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL30">
         <v>1</v>
       </c>
       <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>1</v>
+      </c>
+      <c r="AO30">
         <v>12015</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:41">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4193,24 +4379,30 @@
         <v>0.969313387034906</v>
       </c>
       <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31">
         <v>1957</v>
       </c>
-      <c r="AJ31">
-        <v>0</v>
-      </c>
       <c r="AK31">
         <v>0</v>
       </c>
       <c r="AL31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <v>1</v>
+      </c>
+      <c r="AO31">
         <v>28768</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:41">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4309,24 +4501,30 @@
         <v>0.969313387034906</v>
       </c>
       <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AJ32">
         <v>1957</v>
       </c>
-      <c r="AJ32">
-        <v>0</v>
-      </c>
       <c r="AK32">
         <v>0</v>
       </c>
       <c r="AL32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <v>1</v>
+      </c>
+      <c r="AO32">
         <v>1600</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:41">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -4425,24 +4623,30 @@
         <v>0.969313387034906</v>
       </c>
       <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
         <v>1957</v>
       </c>
-      <c r="AJ33">
-        <v>0</v>
-      </c>
       <c r="AK33">
         <v>0</v>
       </c>
       <c r="AL33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <v>1</v>
+      </c>
+      <c r="AO33">
         <v>3500</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:41">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4541,24 +4745,30 @@
         <v>0.969313387034906</v>
       </c>
       <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
         <v>1957</v>
       </c>
-      <c r="AJ34">
-        <v>0</v>
-      </c>
       <c r="AK34">
         <v>0</v>
       </c>
       <c r="AL34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>1</v>
+      </c>
+      <c r="AO34">
         <v>11000</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:41">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4657,24 +4867,30 @@
         <v>0.2979530865194396</v>
       </c>
       <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
         <v>1957</v>
       </c>
-      <c r="AJ35">
-        <v>0</v>
-      </c>
       <c r="AK35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35">
         <v>1</v>
       </c>
       <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>1</v>
+      </c>
+      <c r="AO35">
         <v>12015</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:41">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4773,24 +4989,30 @@
         <v>0.2979530865194396</v>
       </c>
       <c r="AI36">
+        <v>0</v>
+      </c>
+      <c r="AJ36">
         <v>1957</v>
       </c>
-      <c r="AJ36">
-        <v>0</v>
-      </c>
       <c r="AK36">
         <v>0</v>
       </c>
       <c r="AL36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36">
+        <v>0</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+      <c r="AO36">
         <v>28768</v>
       </c>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="1:41">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4889,24 +5111,30 @@
         <v>0.2979530865194396</v>
       </c>
       <c r="AI37">
+        <v>0</v>
+      </c>
+      <c r="AJ37">
         <v>1957</v>
       </c>
-      <c r="AJ37">
-        <v>0</v>
-      </c>
       <c r="AK37">
         <v>0</v>
       </c>
       <c r="AL37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37">
+        <v>0</v>
+      </c>
+      <c r="AN37">
+        <v>1</v>
+      </c>
+      <c r="AO37">
         <v>1600</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:41">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -5005,24 +5233,30 @@
         <v>0.2979530865194396</v>
       </c>
       <c r="AI38">
+        <v>0</v>
+      </c>
+      <c r="AJ38">
         <v>1957</v>
       </c>
-      <c r="AJ38">
-        <v>0</v>
-      </c>
       <c r="AK38">
         <v>0</v>
       </c>
       <c r="AL38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM38">
+        <v>0</v>
+      </c>
+      <c r="AN38">
+        <v>1</v>
+      </c>
+      <c r="AO38">
         <v>3500</v>
       </c>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:41">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -5121,24 +5355,30 @@
         <v>0.2979530865194396</v>
       </c>
       <c r="AI39">
+        <v>0</v>
+      </c>
+      <c r="AJ39">
         <v>1957</v>
       </c>
-      <c r="AJ39">
-        <v>0</v>
-      </c>
       <c r="AK39">
         <v>0</v>
       </c>
       <c r="AL39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39">
+        <v>0</v>
+      </c>
+      <c r="AN39">
+        <v>1</v>
+      </c>
+      <c r="AO39">
         <v>11000</v>
       </c>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="1:41">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -5237,24 +5477,30 @@
         <v>0.1025623076729229</v>
       </c>
       <c r="AI40">
+        <v>0.8974376923270772</v>
+      </c>
+      <c r="AJ40">
         <v>1957</v>
       </c>
-      <c r="AJ40">
-        <v>0</v>
-      </c>
       <c r="AK40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL40">
         <v>1</v>
       </c>
       <c r="AM40">
+        <v>0</v>
+      </c>
+      <c r="AN40">
+        <v>1</v>
+      </c>
+      <c r="AO40">
         <v>307720</v>
       </c>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:41">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -5353,24 +5599,30 @@
         <v>0.1025623076729229</v>
       </c>
       <c r="AI41">
+        <v>0.8974376923270772</v>
+      </c>
+      <c r="AJ41">
         <v>1957</v>
       </c>
-      <c r="AJ41">
-        <v>0</v>
-      </c>
       <c r="AK41">
         <v>0</v>
       </c>
       <c r="AL41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM41">
+        <v>0</v>
+      </c>
+      <c r="AN41">
+        <v>1</v>
+      </c>
+      <c r="AO41">
         <v>14874</v>
       </c>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" spans="1:41">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -5469,30 +5721,36 @@
         <v>0.1025623076729229</v>
       </c>
       <c r="AI42">
+        <v>0.8974376923270772</v>
+      </c>
+      <c r="AJ42">
         <v>1957</v>
       </c>
-      <c r="AJ42">
-        <v>0</v>
-      </c>
       <c r="AK42">
         <v>0</v>
       </c>
       <c r="AL42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM42">
+        <v>0</v>
+      </c>
+      <c r="AN42">
+        <v>1</v>
+      </c>
+      <c r="AO42">
         <v>705</v>
       </c>
     </row>
-    <row r="43" spans="1:39">
+    <row r="43" spans="1:41">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -5585,18 +5843,24 @@
         <v>0.1025623076729229</v>
       </c>
       <c r="AI43">
+        <v>0.8974376923270772</v>
+      </c>
+      <c r="AJ43">
         <v>1957</v>
       </c>
-      <c r="AJ43">
-        <v>0</v>
-      </c>
       <c r="AK43">
         <v>0</v>
       </c>
       <c r="AL43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM43">
+        <v>0</v>
+      </c>
+      <c r="AN43">
+        <v>1</v>
+      </c>
+      <c r="AO43">
         <v>10682</v>
       </c>
     </row>

--- a/output/fere-ceca.xlsx
+++ b/output/fere-ceca.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -22,25 +22,25 @@
     <t>ONU</t>
   </si>
   <si>
-    <t>Gross_National_Income</t>
+    <t>GDP</t>
   </si>
   <si>
     <t>Public_Grant</t>
   </si>
   <si>
-    <t>NGO_Country_Budget_Previous_Year</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_LatinAmerica</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Africa</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Confessional</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Universal</t>
+    <t>Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>LatinAmerica</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Confessional</t>
+  </si>
+  <si>
+    <t>Universal</t>
   </si>
   <si>
     <t>Public_Funds_MAE</t>
@@ -109,16 +109,16 @@
     <t>Voluntarios_Extranjero</t>
   </si>
   <si>
-    <t>Total_subvencion_en_el_Pais_y_Anyo</t>
-  </si>
-  <si>
-    <t>Total_Fondos</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_Privados</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_MAE</t>
+    <t>Donor_Aid_Budget</t>
+  </si>
+  <si>
+    <t>Total_Funds</t>
+  </si>
+  <si>
+    <t>%_Private_Funds</t>
+  </si>
+  <si>
+    <t>%_MAE_Funds</t>
   </si>
   <si>
     <t>Anyo_ONG</t>
@@ -130,7 +130,7 @@
     <t>Colony</t>
   </si>
   <si>
-    <t>Delegacion</t>
+    <t>Delegation</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -263,9 +263,6 @@
   </si>
   <si>
     <t>2016_siria</t>
-  </si>
-  <si>
-    <t>..</t>
   </si>
 </sst>
 </file>
@@ -748,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2880</v>
+        <v>2771.04675450926</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -870,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2620</v>
+        <v>2870.311589353206</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -992,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1380</v>
+        <v>1460.056109840828</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1114,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>7800</v>
+        <v>9502.243585046588</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1236,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4060</v>
+        <v>4547.50930098406</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1358,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2260</v>
+        <v>2100.656463590606</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1480,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>12530</v>
+        <v>19868.07076233724</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1602,7 +1599,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>9970</v>
+        <v>17288.8595992193</v>
       </c>
       <c r="D9">
         <v>9000000</v>
@@ -1724,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>960</v>
+        <v>951.6879611168786</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1846,7 +1843,7 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>650</v>
+        <v>665.6274194933962</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1948,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="AL11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM11">
         <v>0</v>
@@ -1968,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1460</v>
+        <v>1503.870423231357</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2090,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9270</v>
+        <v>10385.96443195552</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2212,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4390</v>
+        <v>4633.590358399045</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2334,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>1220</v>
+        <v>1357.563719132622</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2456,7 +2453,7 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>500</v>
+        <v>492.3430015592067</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2578,7 +2575,7 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>11530</v>
+        <v>17610.30663334184</v>
       </c>
       <c r="D17">
         <v>9000000</v>
@@ -2700,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>990</v>
+        <v>982.980837581714</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2822,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>2860</v>
+        <v>2965.153206179127</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2944,7 +2941,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>710</v>
+        <v>691.8942672110555</v>
       </c>
       <c r="D20">
         <v>660000</v>
@@ -3046,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="AL20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM20">
         <v>0</v>
@@ -3066,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>1570</v>
+        <v>1577.487171555845</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3188,7 +3185,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4870</v>
+        <v>4921.848409120176</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -3310,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4970</v>
+        <v>5360.226632400601</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -3432,7 +3429,7 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>13860</v>
+        <v>18254.09644617555</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -3554,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>1050</v>
+        <v>1000.829216794104</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -3676,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>5390</v>
+        <v>5122.180090208862</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -3798,7 +3795,7 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>14020</v>
+        <v>16764.42871195103</v>
       </c>
       <c r="D27">
         <v>725000</v>
@@ -3920,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>1130</v>
+        <v>1032.277326842402</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -4042,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>5810</v>
+        <v>5295.682695961288</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -4164,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>3400</v>
+        <v>3252.634165082374</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -4286,7 +4283,7 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>1560</v>
+        <v>1640.18070024053</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -4408,7 +4405,7 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>1240</v>
+        <v>1060.095015975378</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -4530,7 +4527,7 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>770</v>
+        <v>711.3043470146426</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -4652,7 +4649,7 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>970</v>
+        <v>846.386841468855</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -4774,7 +4771,7 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>3440</v>
+        <v>3314.741082534716</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -4896,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>1600</v>
+        <v>1751.664428859304</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -5018,7 +5015,7 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>1290</v>
+        <v>1093.134170274031</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -5140,7 +5137,7 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>780</v>
+        <v>731.9993357350996</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -5262,7 +5259,7 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>980</v>
+        <v>871.998368594318</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -5384,7 +5381,7 @@
         <v>1</v>
       </c>
       <c r="C40">
-        <v>8260</v>
+        <v>12358.30403621203</v>
       </c>
       <c r="D40">
         <v>430000</v>
@@ -5506,7 +5503,7 @@
         <v>1</v>
       </c>
       <c r="C41">
-        <v>780</v>
+        <v>729.8559996981501</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -5608,7 +5605,7 @@
         <v>0</v>
       </c>
       <c r="AL41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM41">
         <v>0</v>
@@ -5628,7 +5625,7 @@
         <v>1</v>
       </c>
       <c r="C42">
-        <v>770</v>
+        <v>729.6614300490079</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -5749,8 +5746,8 @@
       <c r="B43">
         <v>0</v>
       </c>
-      <c r="C43" t="s">
-        <v>83</v>
+      <c r="C43">
+        <v>0</v>
       </c>
       <c r="D43">
         <v>0</v>

--- a/output/fere-ceca.xlsx
+++ b/output/fere-ceca.xlsx
@@ -2578,7 +2578,7 @@
         <v>17610.30663334184</v>
       </c>
       <c r="D17">
-        <v>9000000</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>4000000</v>
@@ -3801,7 +3801,7 @@
         <v>725000</v>
       </c>
       <c r="E27">
-        <v>1362500</v>
+        <v>3000000</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -3923,7 +3923,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>4000</v>
+        <v>44625</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>61000</v>
+        <v>224000</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -4777,7 +4777,7 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>12015</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -4899,7 +4899,7 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>28768</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -5021,7 +5021,7 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>1600</v>
+        <v>4000</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>77</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38">
         <v>731.9993357350996</v>
@@ -5143,7 +5143,7 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -5265,7 +5265,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -5747,7 +5747,7 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>941.02</v>
       </c>
       <c r="D43">
         <v>0</v>
